--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spon2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H2">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I2">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J2">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>161.1810533955324</v>
+        <v>66.24632247347999</v>
       </c>
       <c r="R2">
-        <v>1450.629480559792</v>
+        <v>596.21690226132</v>
       </c>
       <c r="S2">
-        <v>0.04038688237552308</v>
+        <v>0.02117343126719654</v>
       </c>
       <c r="T2">
-        <v>0.04580393388397194</v>
+        <v>0.02294026508502566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H3">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I3">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J3">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>172.4869432046866</v>
+        <v>80.3648137756</v>
       </c>
       <c r="R3">
-        <v>1552.38248884218</v>
+        <v>723.2833239803999</v>
       </c>
       <c r="S3">
-        <v>0.04321978135622668</v>
+        <v>0.02568593692819562</v>
       </c>
       <c r="T3">
-        <v>0.04901680672732765</v>
+        <v>0.02782932037108957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H4">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I4">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J4">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>86.61132919060708</v>
+        <v>45.36991993818667</v>
       </c>
       <c r="R4">
-        <v>779.5019627154638</v>
+        <v>408.32927944368</v>
       </c>
       <c r="S4">
-        <v>0.02170206417391309</v>
+        <v>0.01450098428926332</v>
       </c>
       <c r="T4">
-        <v>0.02461293999682631</v>
+        <v>0.01571103046037083</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H5">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I5">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J5">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>197.374159295827</v>
+        <v>49.47931704550001</v>
       </c>
       <c r="R5">
-        <v>1184.244955774962</v>
+        <v>296.8759022730001</v>
       </c>
       <c r="S5">
-        <v>0.04945573184639124</v>
+        <v>0.01581441624974909</v>
       </c>
       <c r="T5">
-        <v>0.03739278594821571</v>
+        <v>0.01142270853051699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.166127333333333</v>
+        <v>0.54332</v>
       </c>
       <c r="H6">
-        <v>3.498381999999999</v>
+        <v>1.62996</v>
       </c>
       <c r="I6">
-        <v>0.1795592107679211</v>
+        <v>0.09277509850694737</v>
       </c>
       <c r="J6">
-        <v>0.1849469123397136</v>
+        <v>0.09480543614915297</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>98.95401309410022</v>
+        <v>48.8094944916</v>
       </c>
       <c r="R6">
-        <v>890.586117846902</v>
+        <v>439.2854504244</v>
       </c>
       <c r="S6">
-        <v>0.02479475101586704</v>
+        <v>0.01560032977254279</v>
       </c>
       <c r="T6">
-        <v>0.02812044578337202</v>
+        <v>0.01690211170214992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>13.850705</v>
       </c>
       <c r="I7">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J7">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>638.1439254406089</v>
+        <v>562.9329983036649</v>
       </c>
       <c r="R7">
-        <v>5743.29532896548</v>
+        <v>5066.396984732984</v>
       </c>
       <c r="S7">
-        <v>0.1598987170792296</v>
+        <v>0.1799227897124563</v>
       </c>
       <c r="T7">
-        <v>0.1813457695775932</v>
+        <v>0.1949365900479093</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>13.850705</v>
       </c>
       <c r="I8">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J8">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>682.9059167008833</v>
+        <v>682.9059167008832</v>
       </c>
       <c r="R8">
         <v>6146.15325030795</v>
       </c>
       <c r="S8">
-        <v>0.1711146586420796</v>
+        <v>0.2182681385071067</v>
       </c>
       <c r="T8">
-        <v>0.1940660939892301</v>
+        <v>0.2364816969805714</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>13.850705</v>
       </c>
       <c r="I9">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J9">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>342.9093707539622</v>
+        <v>385.5342320900155</v>
       </c>
       <c r="R9">
-        <v>3086.18433678566</v>
+        <v>3469.80808881014</v>
       </c>
       <c r="S9">
-        <v>0.08592226028030643</v>
+        <v>0.1232231806916862</v>
       </c>
       <c r="T9">
-        <v>0.09744692577275499</v>
+        <v>0.1335056370417744</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>13.850705</v>
       </c>
       <c r="I10">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J10">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>781.4387494074425</v>
+        <v>420.4541362970209</v>
       </c>
       <c r="R10">
-        <v>4688.632496444655</v>
+        <v>2522.724817782125</v>
       </c>
       <c r="S10">
-        <v>0.1958038751524191</v>
+        <v>0.1343841653920838</v>
       </c>
       <c r="T10">
-        <v>0.1480445666873661</v>
+        <v>0.09706530599350552</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>13.850705</v>
       </c>
       <c r="I11">
-        <v>0.7109062584872947</v>
+        <v>0.7883632241071366</v>
       </c>
       <c r="J11">
-        <v>0.7322371094632415</v>
+        <v>0.805616167573593</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>391.7762108118895</v>
+        <v>414.7622698730499</v>
       </c>
       <c r="R11">
-        <v>3525.985897307005</v>
+        <v>3732.86042885745</v>
       </c>
       <c r="S11">
-        <v>0.09816674733325997</v>
+        <v>0.1325649498038033</v>
       </c>
       <c r="T11">
-        <v>0.1113337534362971</v>
+        <v>0.1436269375098324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H12">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I12">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J12">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>78.44838427675602</v>
+        <v>8.915307466941</v>
       </c>
       <c r="R12">
-        <v>470.6903056605361</v>
+        <v>80.23776720246899</v>
       </c>
       <c r="S12">
-        <v>0.01965668793937165</v>
+        <v>0.002849481191242994</v>
       </c>
       <c r="T12">
-        <v>0.01486214635041198</v>
+        <v>0.003087258416314494</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H13">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I13">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J13">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>83.95107066361501</v>
+        <v>10.81534789527</v>
       </c>
       <c r="R13">
-        <v>503.7064239816901</v>
+        <v>97.33813105742999</v>
       </c>
       <c r="S13">
-        <v>0.02103548738988837</v>
+        <v>0.003456765851160892</v>
       </c>
       <c r="T13">
-        <v>0.01590463729724146</v>
+        <v>0.003745218427839391</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H14">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I14">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J14">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>42.154575193102</v>
+        <v>6.105799852684</v>
       </c>
       <c r="R14">
-        <v>252.927451158612</v>
+        <v>54.95219867415599</v>
       </c>
       <c r="S14">
-        <v>0.01056260543065258</v>
+        <v>0.001951515626604293</v>
       </c>
       <c r="T14">
-        <v>0.00798623797845331</v>
+        <v>0.002114361400706498</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H15">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I15">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J15">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>96.06392047050527</v>
+        <v>6.658834909537501</v>
       </c>
       <c r="R15">
-        <v>384.2556818820211</v>
+        <v>39.953009457225</v>
       </c>
       <c r="S15">
-        <v>0.02407058506469245</v>
+        <v>0.002128274868890163</v>
       </c>
       <c r="T15">
-        <v>0.01213295475056299</v>
+        <v>0.001537246972397246</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5675655000000001</v>
+        <v>0.073119</v>
       </c>
       <c r="H16">
-        <v>1.135131</v>
+        <v>0.219357</v>
       </c>
       <c r="I16">
-        <v>0.08739321198122495</v>
+        <v>0.01248550104492653</v>
       </c>
       <c r="J16">
-        <v>0.0600103057788119</v>
+        <v>0.01275874012697842</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>48.16187933629851</v>
+        <v>6.56869142997</v>
       </c>
       <c r="R16">
-        <v>288.9712760177911</v>
+        <v>59.11822286973</v>
       </c>
       <c r="S16">
-        <v>0.01206784615661991</v>
+        <v>0.00209946350702819</v>
       </c>
       <c r="T16">
-        <v>0.009124329402142153</v>
+        <v>0.002274654909720791</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,19 +1467,19 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H17">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I17">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J17">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>19.87512122944978</v>
+        <v>45.8761147993365</v>
       </c>
       <c r="R17">
-        <v>178.876091065048</v>
+        <v>275.256688796019</v>
       </c>
       <c r="S17">
-        <v>0.004980077784473015</v>
+        <v>0.01466277262256521</v>
       </c>
       <c r="T17">
-        <v>0.005648050558992549</v>
+        <v>0.01059087956657673</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,19 +1529,19 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H18">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I18">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J18">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>21.26924247279667</v>
+        <v>55.65328436265499</v>
       </c>
       <c r="R18">
-        <v>191.42318225517</v>
+        <v>333.91970617593</v>
       </c>
       <c r="S18">
-        <v>0.005329400545964717</v>
+        <v>0.0177877193366945</v>
       </c>
       <c r="T18">
-        <v>0.006044227627644661</v>
+        <v>0.01284801981919035</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H19">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I19">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J19">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>10.67998149436844</v>
+        <v>31.41903697905934</v>
       </c>
       <c r="R19">
-        <v>96.11983344931599</v>
+        <v>188.514221874356</v>
       </c>
       <c r="S19">
-        <v>0.002676066121291258</v>
+        <v>0.01004204905448049</v>
       </c>
       <c r="T19">
-        <v>0.003035004151819591</v>
+        <v>0.007253343884906546</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H20">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I20">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J20">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>24.3380674150255</v>
+        <v>34.26482775524376</v>
       </c>
       <c r="R20">
-        <v>146.028404490153</v>
+        <v>137.059311020975</v>
       </c>
       <c r="S20">
-        <v>0.006098351172368196</v>
+        <v>0.01095161132375942</v>
       </c>
       <c r="T20">
-        <v>0.004610877880316997</v>
+        <v>0.005273545441712524</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1437943333333333</v>
+        <v>0.3762535</v>
       </c>
       <c r="H21">
-        <v>0.431383</v>
+        <v>0.752507</v>
       </c>
       <c r="I21">
-        <v>0.02214131876355931</v>
+        <v>0.0642475070420447</v>
       </c>
       <c r="J21">
-        <v>0.02280567241823297</v>
+        <v>0.0437690215344491</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>12.20194908119589</v>
+        <v>33.800970212205</v>
       </c>
       <c r="R21">
-        <v>109.817541730763</v>
+        <v>202.80582127323</v>
       </c>
       <c r="S21">
-        <v>0.003057423139462121</v>
+        <v>0.01080335470454507</v>
       </c>
       <c r="T21">
-        <v>0.003467512199459171</v>
+        <v>0.007803232822062954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.740156</v>
+      </c>
+      <c r="I22">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J22">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>121.928739</v>
+      </c>
+      <c r="N22">
+        <v>365.786217</v>
+      </c>
+      <c r="O22">
+        <v>0.2282232151508951</v>
+      </c>
+      <c r="P22">
+        <v>0.2419720431319445</v>
+      </c>
+      <c r="Q22">
+        <v>30.082095914428</v>
+      </c>
+      <c r="R22">
+        <v>270.738863229852</v>
+      </c>
+      <c r="S22">
+        <v>0.009614740357433997</v>
+      </c>
+      <c r="T22">
+        <v>0.01041705001611834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.740156</v>
+      </c>
+      <c r="I23">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J23">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2768624053389947</v>
+      </c>
+      <c r="P23">
+        <v>0.2935413991166814</v>
+      </c>
+      <c r="Q23">
+        <v>36.49322627849333</v>
+      </c>
+      <c r="R23">
+        <v>328.43903650644</v>
+      </c>
+      <c r="S23">
+        <v>0.01166384471583693</v>
+      </c>
+      <c r="T23">
+        <v>0.01263714351799073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.740156</v>
+      </c>
+      <c r="I24">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J24">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>83.50496933333334</v>
+      </c>
+      <c r="N24">
+        <v>250.514908</v>
+      </c>
+      <c r="O24">
+        <v>0.1563025480180701</v>
+      </c>
+      <c r="P24">
+        <v>0.1657186665504434</v>
+      </c>
+      <c r="Q24">
+        <v>20.60223469396089</v>
+      </c>
+      <c r="R24">
+        <v>185.420112245648</v>
+      </c>
+      <c r="S24">
+        <v>0.00658481835603572</v>
+      </c>
+      <c r="T24">
+        <v>0.007134293762685117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.740156</v>
+      </c>
+      <c r="I25">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J25">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>91.06846250000001</v>
+      </c>
+      <c r="N25">
+        <v>182.136925</v>
+      </c>
+      <c r="O25">
+        <v>0.1704597085236707</v>
+      </c>
+      <c r="P25">
+        <v>0.1204857969594293</v>
+      </c>
+      <c r="Q25">
+        <v>22.46828964338334</v>
+      </c>
+      <c r="R25">
+        <v>134.8097378603</v>
+      </c>
+      <c r="S25">
+        <v>0.007181240689188254</v>
+      </c>
+      <c r="T25">
+        <v>0.005186990021297045</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.2467186666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.740156</v>
+      </c>
+      <c r="I26">
+        <v>0.04212866929894484</v>
+      </c>
+      <c r="J26">
+        <v>0.04305063461582644</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>89.83562999999999</v>
+      </c>
+      <c r="N26">
+        <v>269.50689</v>
+      </c>
+      <c r="O26">
+        <v>0.1681521229683693</v>
+      </c>
+      <c r="P26">
+        <v>0.1782820942415013</v>
+      </c>
+      <c r="Q26">
+        <v>22.16412685276</v>
+      </c>
+      <c r="R26">
+        <v>199.47714167484</v>
+      </c>
+      <c r="S26">
+        <v>0.007084025180449937</v>
+      </c>
+      <c r="T26">
+        <v>0.007675157297735207</v>
       </c>
     </row>
   </sheetData>
